--- a/simulations/cleaned_inclusion_exclusion/Nelson_2002 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Nelson_2002 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.3633879781420765</v>
+        <v>0.3852459016393442</v>
       </c>
       <c r="I3">
-        <v>0.1629807692307692</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="J3">
         <v>0.1125</v>
       </c>
       <c r="K3">
-        <v>87.1125</v>
+        <v>87.3</v>
       </c>
       <c r="L3">
         <v>8</v>
@@ -755,34 +755,34 @@
         <v>72</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="T3">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U3">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="V3">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W3">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X3">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Y3">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Z3">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AA3">
         <v>72</v>
@@ -800,19 +800,19 @@
         <v>8</v>
       </c>
       <c r="AF3">
-        <v>0.9755239999999999</v>
+        <v>0.979021</v>
       </c>
       <c r="AG3">
-        <v>0.909091</v>
+        <v>0.912587</v>
       </c>
       <c r="AH3">
-        <v>0.891608</v>
+        <v>0.870629</v>
       </c>
       <c r="AI3">
-        <v>0.814685</v>
+        <v>0.821678</v>
       </c>
       <c r="AJ3">
-        <v>0.646853</v>
+        <v>0.622378</v>
       </c>
     </row>
   </sheetData>
